--- a/Server/assets/empty_report.xlsx
+++ b/Server/assets/empty_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Desktop\Schule\4. Klasse\PRE\_project\PRE2024-25\Server\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B01799-901B-43D2-B67F-3B4F8ECD85E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0351AE5-E862-4770-86F2-3B1F52903C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -774,11 +774,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,6 +1027,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2230,7 @@
       <c r="G31" s="73"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="74">
+      <c r="J31" s="76">
         <v>0</v>
       </c>
       <c r="K31" s="34"/>
@@ -2216,15 +2249,6 @@
     </row>
     <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E32" s="47"/>
-      <c r="F32" s="46"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="75">
-        <f>SUM(J4:J31)</f>
-        <v>0</v>
-      </c>
       <c r="Q32" s="59">
         <f>SUM(Q4:Q31)</f>
         <v>0</v>
@@ -2236,11 +2260,7 @@
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="I33" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="5"/>
+      <c r="G33" s="78"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="61">
         <f>SUM(Q32:R32)</f>
@@ -2249,68 +2269,104 @@
     </row>
     <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
-      <c r="I34" s="54" t="s">
+      <c r="I34" s="78"/>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="47"/>
+    </row>
+    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F40" s="46"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="75">
+        <f>SUM(J4:J31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F41" s="48"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38">
+        <v>30</v>
+      </c>
+      <c r="F42" s="48"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="38">
-        <v>30</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="49"/>
-      <c r="I35" s="55" t="s">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="32"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="32"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="50"/>
-      <c r="I36" s="56" t="s">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="32"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="32"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="57" t="s">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="32"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="6"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Server/assets/empty_report.xlsx
+++ b/Server/assets/empty_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\OneDrive\Desktop\Schule\4. Klasse\PRE\_project\PRE2024-25\Server\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0351AE5-E862-4770-86F2-3B1F52903C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF832EB-5681-4EC3-9F25-0F06B0B350B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Jahr</t>
   </si>
@@ -108,27 +108,6 @@
     <t>Auslagen/
 Fahrkosten 
 in EUR</t>
-  </si>
-  <si>
-    <t>Samstag</t>
-  </si>
-  <si>
-    <t>Sonntag</t>
-  </si>
-  <si>
-    <t>Montag</t>
-  </si>
-  <si>
-    <t>Dienstag</t>
-  </si>
-  <si>
-    <t>Mittwoch</t>
-  </si>
-  <si>
-    <t>Donnerstag</t>
-  </si>
-  <si>
-    <t>Freitag</t>
   </si>
   <si>
     <t>Urlaubanspruch</t>
@@ -172,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +167,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,18 +190,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -378,17 +358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -427,66 +396,12 @@
         <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -494,19 +409,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -604,21 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -772,21 +659,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,11 +670,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,103 +811,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -954,31 +904,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -993,13 +943,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1008,34 +952,67 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1445,62 +1422,62 @@
       <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="14" t="s">
@@ -1508,865 +1485,839 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="64">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="51">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="64">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="51">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="64">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="Q6" s="51">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="64">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="51">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="64">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="Q8" s="51">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="64">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="51">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="64">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="Q10" s="51">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="64">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="51">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="64">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="Q12" s="51">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="64">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="51">
+        <v>0</v>
+      </c>
+      <c r="R13" s="24"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="64">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="Q14" s="51">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="64">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="51">
+        <v>0</v>
+      </c>
+      <c r="R15" s="24"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="64">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="Q16" s="51">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="26"/>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="64">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="51">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="64">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="Q18" s="51">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="26"/>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="64">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="51">
+        <v>0</v>
+      </c>
+      <c r="R19" s="24"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="64">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="Q20" s="51">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="64">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="51">
+        <v>0</v>
+      </c>
+      <c r="R21" s="24"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="64">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="Q22" s="51">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="26"/>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="64">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="51">
+        <v>0</v>
+      </c>
+      <c r="R23" s="24"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="64">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="Q24" s="51">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="26"/>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="64">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="51">
+        <v>0</v>
+      </c>
+      <c r="R25" s="24"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="64">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="Q26" s="51">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="26"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="64">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="51">
+        <v>0</v>
+      </c>
+      <c r="R27" s="24"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="64">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="Q28" s="51">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="26"/>
+    </row>
+    <row r="29" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="64">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="51">
+        <v>0</v>
+      </c>
+      <c r="R29" s="24"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="64">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="51">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="64">
+        <v>0</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="51">
+        <v>0</v>
+      </c>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="26"/>
+    </row>
+    <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="64">
+        <v>0</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="51">
+        <v>0</v>
+      </c>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="26"/>
+    </row>
+    <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="77">
+        <v>0</v>
+      </c>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="78">
+        <v>0</v>
+      </c>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="65">
+        <f>SUM(J4:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="52">
+        <f>SUM(Q4:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="53">
+        <f>SUM(R4:R33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="I35" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="54">
+        <f>SUM(Q34:R34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="74">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="58">
-        <v>0</v>
-      </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="31">
+        <v>30</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="I36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="74">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="58">
-        <v>0</v>
-      </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32"/>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="26"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="42"/>
+      <c r="I37" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="74">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="Q6" s="58">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="32"/>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="26"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="43"/>
+      <c r="I38" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="74">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="58">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="26"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="69"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="74">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="Q8" s="58">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="32"/>
-    </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="74">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="58">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-    </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="74">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="Q10" s="58">
-        <v>0</v>
-      </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="74">
-        <v>0</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="58">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="74">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="Q12" s="58">
-        <v>0</v>
-      </c>
-      <c r="S12" s="27"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="74">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="58">
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="74">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="58">
-        <v>0</v>
-      </c>
-      <c r="S14" s="27"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="32"/>
-    </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="74">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="58">
-        <v>0</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="74">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="Q16" s="58">
-        <v>0</v>
-      </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="32"/>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="74">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="58">
-        <v>0</v>
-      </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="74">
-        <v>0</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="Q18" s="58">
-        <v>0</v>
-      </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="74">
-        <v>0</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="58">
-        <v>0</v>
-      </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="74">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="Q20" s="58">
-        <v>0</v>
-      </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="74">
-        <v>0</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="58">
-        <v>0</v>
-      </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="74">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="Q22" s="58">
-        <v>0</v>
-      </c>
-      <c r="S22" s="27"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="32"/>
-    </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="74">
-        <v>0</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="58">
-        <v>0</v>
-      </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-    </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="74">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="Q24" s="58">
-        <v>0</v>
-      </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="32"/>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="74">
-        <v>0</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="58">
-        <v>0</v>
-      </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="74">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="Q26" s="58">
-        <v>0</v>
-      </c>
-      <c r="S26" s="27"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="32"/>
-    </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="74">
-        <v>0</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="58">
-        <v>0</v>
-      </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="32"/>
-    </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="74">
-        <v>0</v>
-      </c>
-      <c r="K28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="Q28" s="58">
-        <v>0</v>
-      </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="32"/>
-    </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="74">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="58">
-        <v>0</v>
-      </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="32"/>
-    </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="74">
-        <v>0</v>
-      </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="58">
-        <v>0</v>
-      </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="21"/>
-    </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="76">
-        <v>0</v>
-      </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="58">
-        <v>0</v>
-      </c>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="47"/>
-      <c r="Q32" s="59">
-        <f>SUM(Q4:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="60">
-        <f>SUM(R4:R31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="47"/>
-      <c r="G33" s="78"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="61">
-        <f>SUM(Q32:R32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="47"/>
-      <c r="I34" s="78"/>
-    </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="47"/>
-    </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="47"/>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F40" s="46"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="75">
-        <f>SUM(J4:J31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F41" s="48"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="38">
-        <v>30</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="32"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="32"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="32"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="6"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
